--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97458A60-6AA7-3945-A3F3-7AB08F704D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEBA00-B468-AC4E-B3CE-594F09FE1DE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>요금제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>갤럭시s20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,9 +978,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1058,8 +1059,23 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1416,341 +1432,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>22</v>
+      <c r="A1" s="88" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="54" t="s">
+        <v>22</v>
+      </c>
       <c r="D1" s="54"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="54" t="s">
-        <v>24</v>
+      <c r="A2" s="88">
+        <v>0</v>
       </c>
       <c r="B2" s="54">
         <v>55000</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="54"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>25</v>
+      <c r="A3" s="88">
+        <v>1</v>
       </c>
       <c r="B3" s="54">
         <v>75000</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="54"/>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>26</v>
+      <c r="A4" s="88">
+        <v>2</v>
       </c>
       <c r="B4" s="54">
         <v>89000</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="54"/>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>27</v>
+      <c r="A5" s="88">
+        <v>3</v>
       </c>
       <c r="B5" s="54">
         <v>125000</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="54"/>
       <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>28</v>
+      <c r="A6" s="88">
+        <v>4</v>
       </c>
       <c r="B6" s="54">
         <v>45000</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="54" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="54"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>29</v>
+      <c r="A7" s="88">
+        <v>5</v>
       </c>
       <c r="B7" s="54">
         <v>33000</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="54" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="54"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="54" t="s">
-        <v>30</v>
+      <c r="A8" s="88">
+        <v>6</v>
       </c>
       <c r="B8" s="54">
         <v>43000</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="55"/>
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>31</v>
+      <c r="A9" s="88">
+        <v>7</v>
       </c>
       <c r="B9" s="54">
         <v>50000</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="54" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="54"/>
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="54" t="s">
-        <v>32</v>
+      <c r="A10" s="88">
+        <v>8</v>
       </c>
       <c r="B10" s="54">
         <v>69000</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="54"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="54" t="s">
-        <v>33</v>
+      <c r="A11" s="88">
+        <v>9</v>
       </c>
       <c r="B11" s="54">
         <v>79000</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="54"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="54" t="s">
-        <v>34</v>
+      <c r="A12" s="88">
+        <v>10</v>
       </c>
       <c r="B12" s="54">
         <v>100000</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54" t="s">
+        <v>34</v>
+      </c>
       <c r="D12" s="54"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="54" t="s">
-        <v>35</v>
+      <c r="A13" s="88">
+        <v>11</v>
       </c>
       <c r="B13" s="54">
         <v>33000</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="54"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="54" t="s">
-        <v>36</v>
+      <c r="A14" s="88">
+        <v>12</v>
       </c>
       <c r="B14" s="54">
         <v>50000</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="54" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="54"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="54" t="s">
-        <v>37</v>
+      <c r="A15" s="88">
+        <v>13</v>
       </c>
       <c r="B15" s="54">
         <v>69000</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="54" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="54"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="54" t="s">
-        <v>38</v>
+      <c r="A16" s="88">
+        <v>14</v>
       </c>
       <c r="B16" s="54">
         <v>31000</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="54" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="54"/>
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="54" t="s">
-        <v>39</v>
+      <c r="A17" s="88">
+        <v>15</v>
       </c>
       <c r="B17" s="54">
         <v>41000</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="54" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>40</v>
+      <c r="A18" s="88">
+        <v>16</v>
       </c>
       <c r="B18" s="54">
         <v>47000</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="54" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="54"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="54" t="s">
-        <v>41</v>
+      <c r="A19" s="88">
+        <v>17</v>
       </c>
       <c r="B19" s="54">
         <v>33000</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="54"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="54" t="s">
-        <v>42</v>
+      <c r="A20" s="88">
+        <v>18</v>
       </c>
       <c r="B20" s="54">
         <v>43000</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="54"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>43</v>
+      <c r="A21" s="88">
+        <v>19</v>
       </c>
       <c r="B21" s="54">
         <v>50000</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="54" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="54"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>44</v>
+      <c r="A22" s="88">
+        <v>20</v>
       </c>
       <c r="B22" s="54">
         <v>69000</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="54" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="54"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="54" t="s">
-        <v>45</v>
+      <c r="A23" s="88">
+        <v>21</v>
       </c>
       <c r="B23" s="54">
         <v>79000</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="54"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="A24" s="54"/>
       <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
-      <c r="A25" s="54"/>
       <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="54"/>
       <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1">
-      <c r="A27" s="54"/>
       <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
-      <c r="A28" s="54"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="A29" s="54"/>
       <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
-      <c r="A30" s="54"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="A31" s="54"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="A32" s="54"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="52"/>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1">
-      <c r="A33" s="54"/>
+    <row r="33" spans="2:5" ht="18" customHeight="1">
       <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="52"/>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1"/>
+    <row r="34" spans="2:5" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,221 +1813,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.83203125" style="59" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.1640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="str">
-        <f>요금제!$A2</f>
+      <c r="D1" s="83">
+        <v>0</v>
+      </c>
+      <c r="E1" s="83">
+        <v>1</v>
+      </c>
+      <c r="F1" s="83">
+        <v>2</v>
+      </c>
+      <c r="G1" s="83">
+        <v>3</v>
+      </c>
+      <c r="H1" s="83">
+        <v>4</v>
+      </c>
+      <c r="I1" s="83">
+        <v>5</v>
+      </c>
+      <c r="J1" s="83">
+        <v>6</v>
+      </c>
+      <c r="K1" s="83">
+        <v>7</v>
+      </c>
+      <c r="L1" s="83">
+        <v>8</v>
+      </c>
+      <c r="M1" s="83">
+        <v>9</v>
+      </c>
+      <c r="N1" s="83">
+        <v>10</v>
+      </c>
+      <c r="O1" s="83">
+        <v>11</v>
+      </c>
+      <c r="P1" s="83">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="83">
+        <v>13</v>
+      </c>
+      <c r="R1" s="83">
+        <v>14</v>
+      </c>
+      <c r="S1" s="83">
+        <v>15</v>
+      </c>
+      <c r="T1" s="83">
+        <v>16</v>
+      </c>
+      <c r="U1" s="83">
+        <v>17</v>
+      </c>
+      <c r="V1" s="83">
+        <v>18</v>
+      </c>
+      <c r="W1" s="83">
+        <v>19</v>
+      </c>
+      <c r="X1" s="83">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83" t="str">
+        <f>요금제!$C2</f>
         <v>5GX_슬림</v>
       </c>
-      <c r="E1" s="58" t="str">
-        <f>요금제!$A3</f>
+      <c r="E2" s="83" t="str">
+        <f>요금제!$C3</f>
         <v>5GX_스탠다드</v>
       </c>
-      <c r="F1" s="58" t="str">
-        <f>요금제!$A4</f>
+      <c r="F2" s="83" t="str">
+        <f>요금제!$C4</f>
         <v>5GX_프라임</v>
       </c>
-      <c r="G1" s="84" t="str">
-        <f>요금제!$A5</f>
+      <c r="G2" s="84" t="str">
+        <f>요금제!$C5</f>
         <v>5GX_플래티넘</v>
       </c>
-      <c r="H1" s="84" t="str">
-        <f>요금제!$A6</f>
+      <c r="H2" s="84" t="str">
+        <f>요금제!$C6</f>
         <v>5GX_청소년요금제_0틴</v>
       </c>
-      <c r="I1" s="84" t="str">
-        <f>요금제!$A7</f>
+      <c r="I2" s="84" t="str">
+        <f>요금제!$C7</f>
         <v>LTE_플랜_세이브</v>
       </c>
-      <c r="J1" s="84" t="str">
-        <f>요금제!$A8</f>
+      <c r="J2" s="84" t="str">
+        <f>요금제!$C8</f>
         <v>LTE_플랜_안심2.5G</v>
       </c>
-      <c r="K1" s="84" t="str">
-        <f>요금제!$A9</f>
+      <c r="K2" s="84" t="str">
+        <f>요금제!$C9</f>
         <v>LTE_플랜_안심4G</v>
       </c>
-      <c r="L1" s="84" t="str">
-        <f>요금제!$A10</f>
+      <c r="L2" s="84" t="str">
+        <f>요금제!$C10</f>
         <v>LTE_플랜_에센스</v>
       </c>
-      <c r="M1" s="84" t="str">
-        <f>요금제!$A11</f>
+      <c r="M2" s="84" t="str">
+        <f>요금제!$C11</f>
         <v>LTE_플랜_스페셜</v>
       </c>
-      <c r="N1" s="84" t="str">
-        <f>요금제!$A12</f>
+      <c r="N2" s="84" t="str">
+        <f>요금제!$C12</f>
         <v>LTE_플랜_맥스</v>
       </c>
-      <c r="O1" s="84" t="str">
-        <f>요금제!$A13</f>
+      <c r="O2" s="84" t="str">
+        <f>요금제!$C13</f>
         <v>LTE_0플랜_스몰</v>
       </c>
-      <c r="P1" s="84" t="str">
-        <f>요금제!$A14</f>
+      <c r="P2" s="84" t="str">
+        <f>요금제!$C14</f>
         <v>LTE_0플랜_미디엄</v>
       </c>
-      <c r="Q1" s="84" t="str">
-        <f>요금제!$A15</f>
+      <c r="Q2" s="84" t="str">
+        <f>요금제!$C15</f>
         <v>LTE_0플랜_라지</v>
       </c>
-      <c r="R1" s="58" t="str">
-        <f>요금제!$A16</f>
+      <c r="R2" s="83" t="str">
+        <f>요금제!$C16</f>
         <v>LTE_팅_세이브</v>
       </c>
-      <c r="S1" s="59" t="str">
-        <f>요금제!$A17</f>
+      <c r="S2" s="85" t="str">
+        <f>요금제!$C17</f>
         <v>LTE_팅_3.0G</v>
       </c>
-      <c r="T1" s="59" t="str">
-        <f>요금제!$A18</f>
+      <c r="T2" s="85" t="str">
+        <f>요금제!$C18</f>
         <v>LTE_팅_5.0G</v>
       </c>
-      <c r="U1" s="59" t="str">
-        <f>요금제!$A19</f>
+      <c r="U2" s="85" t="str">
+        <f>요금제!$C19</f>
         <v>LTE어르신_세이브</v>
       </c>
-      <c r="V1" s="59" t="str">
-        <f>요금제!$A20</f>
+      <c r="V2" s="85" t="str">
+        <f>요금제!$C20</f>
         <v>LTE어르신_안심2.8G</v>
       </c>
-      <c r="W1" s="59" t="str">
-        <f>요금제!$A21</f>
+      <c r="W2" s="85" t="str">
+        <f>요금제!$C21</f>
         <v>LTE어르신_안심4.5G</v>
       </c>
-      <c r="X1" s="59" t="str">
-        <f>요금제!$A22</f>
+      <c r="X2" s="85" t="str">
+        <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
-      <c r="Y1" s="59" t="str">
-        <f>요금제!$A22</f>
+      <c r="Y2" s="85" t="str">
+        <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="59" customFormat="1">
-      <c r="A2" s="57" t="s">
+    <row r="3" spans="1:25" s="58" customFormat="1">
+      <c r="A3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B3" s="56">
         <v>1199000</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C3" s="56">
         <v>345000</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D3" s="57">
         <v>55000</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E3" s="57">
         <v>75000</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F3" s="57">
         <v>89000</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G3" s="57">
         <v>125000</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H3" s="57">
         <v>45000</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="56" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B4" s="56">
         <v>41241424</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C4" s="56">
         <v>24</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D4" s="57">
         <v>4242</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E4" s="57">
         <v>424</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F4" s="57">
         <v>24244</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G4" s="57">
         <v>5</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="56" t="s">
+    <row r="5" spans="1:25">
+      <c r="A5" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B5" s="56">
         <v>412411</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C5" s="56">
         <v>424</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D5" s="57">
         <v>42442</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E5" s="57">
         <v>424</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F5" s="57">
         <v>424</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G5" s="57">
         <v>42</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H5" s="57">
         <v>613477374</v>
       </c>
     </row>
@@ -1989,7 +2112,7 @@
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C4" sqref="C4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2008,70 +2131,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="63"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2212,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="82">
+      <c r="B6" s="81">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2132,7 +2255,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="68"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2295,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="68"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2335,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="83"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2375,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="69"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="44" t="s">
         <v>23</v>
       </c>
@@ -2296,58 +2419,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2355,12 +2478,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="62"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +2501,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2422,7 +2545,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="68"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2586,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="68"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2627,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="68"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2545,7 +2668,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="69"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="44" t="s">
         <v>23</v>
       </c>

--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEBA00-B468-AC4E-B3CE-594F09FE1DE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE91938-9551-DE40-964A-4D030D4F1489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>요금제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>!!!! 공시지원금 선택시 186일 이내 요금제 변경및 24개월 이내 해지,타사이동시 위발금 발생 !!!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세금포함요금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기기명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -265,6 +257,18 @@
   </si>
   <si>
     <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -987,16 +991,22 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,6 +1042,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,6 +1052,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,22 +1075,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,312 +1437,312 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="88">
+      <c r="A2" s="64">
         <v>0</v>
       </c>
       <c r="B2" s="54">
         <v>55000</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="88">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
       <c r="B3" s="54">
         <v>75000</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="88">
+      <c r="A4" s="64">
         <v>2</v>
       </c>
       <c r="B4" s="54">
         <v>89000</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="88">
+      <c r="A5" s="64">
         <v>3</v>
       </c>
       <c r="B5" s="54">
         <v>125000</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="88">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
       <c r="B6" s="54">
         <v>45000</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="88">
+      <c r="A7" s="64">
         <v>5</v>
       </c>
       <c r="B7" s="54">
         <v>33000</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="88">
+      <c r="A8" s="64">
         <v>6</v>
       </c>
       <c r="B8" s="54">
         <v>43000</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="88">
+      <c r="A9" s="64">
         <v>7</v>
       </c>
       <c r="B9" s="54">
         <v>50000</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="64">
         <v>8</v>
       </c>
       <c r="B10" s="54">
         <v>69000</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="88">
+      <c r="A11" s="64">
         <v>9</v>
       </c>
       <c r="B11" s="54">
         <v>79000</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="88">
+      <c r="A12" s="64">
         <v>10</v>
       </c>
       <c r="B12" s="54">
         <v>100000</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="88">
+      <c r="A13" s="64">
         <v>11</v>
       </c>
       <c r="B13" s="54">
         <v>33000</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="88">
+      <c r="A14" s="64">
         <v>12</v>
       </c>
       <c r="B14" s="54">
         <v>50000</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="88">
+      <c r="A15" s="64">
         <v>13</v>
       </c>
       <c r="B15" s="54">
         <v>69000</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="88">
+      <c r="A16" s="64">
         <v>14</v>
       </c>
       <c r="B16" s="54">
         <v>31000</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="88">
+      <c r="A17" s="64">
         <v>15</v>
       </c>
       <c r="B17" s="54">
         <v>41000</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="88">
+      <c r="A18" s="64">
         <v>16</v>
       </c>
       <c r="B18" s="54">
         <v>47000</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="88">
+      <c r="A19" s="64">
         <v>17</v>
       </c>
       <c r="B19" s="54">
         <v>33000</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="88">
+      <c r="A20" s="64">
         <v>18</v>
       </c>
       <c r="B20" s="54">
         <v>43000</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="88">
+      <c r="A21" s="64">
         <v>19</v>
       </c>
       <c r="B21" s="54">
         <v>50000</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="88">
+      <c r="A22" s="64">
         <v>20</v>
       </c>
       <c r="B22" s="54">
         <v>69000</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="88">
+      <c r="A23" s="64">
         <v>21</v>
       </c>
       <c r="B23" s="54">
         <v>79000</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="52"/>
@@ -1813,232 +1817,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="86" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="13" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83">
+      <c r="E1" s="59">
         <v>0</v>
       </c>
-      <c r="E1" s="83">
+      <c r="F1" s="59">
         <v>1</v>
       </c>
-      <c r="F1" s="83">
+      <c r="G1" s="59">
         <v>2</v>
       </c>
-      <c r="G1" s="83">
+      <c r="H1" s="59">
         <v>3</v>
       </c>
-      <c r="H1" s="83">
+      <c r="I1" s="59">
         <v>4</v>
       </c>
-      <c r="I1" s="83">
+      <c r="J1" s="59">
         <v>5</v>
       </c>
-      <c r="J1" s="83">
+      <c r="K1" s="59">
         <v>6</v>
       </c>
-      <c r="K1" s="83">
+      <c r="L1" s="59">
         <v>7</v>
       </c>
-      <c r="L1" s="83">
+      <c r="M1" s="59">
         <v>8</v>
       </c>
-      <c r="M1" s="83">
+      <c r="N1" s="59">
         <v>9</v>
       </c>
-      <c r="N1" s="83">
+      <c r="O1" s="59">
         <v>10</v>
       </c>
-      <c r="O1" s="83">
+      <c r="P1" s="59">
         <v>11</v>
       </c>
-      <c r="P1" s="83">
+      <c r="Q1" s="59">
         <v>12</v>
       </c>
-      <c r="Q1" s="83">
+      <c r="R1" s="59">
         <v>13</v>
       </c>
-      <c r="R1" s="83">
+      <c r="S1" s="59">
         <v>14</v>
       </c>
-      <c r="S1" s="83">
+      <c r="T1" s="59">
         <v>15</v>
       </c>
-      <c r="T1" s="83">
+      <c r="U1" s="59">
         <v>16</v>
       </c>
-      <c r="U1" s="83">
+      <c r="V1" s="59">
         <v>17</v>
       </c>
-      <c r="V1" s="83">
+      <c r="W1" s="59">
         <v>18</v>
       </c>
-      <c r="W1" s="83">
+      <c r="X1" s="59">
         <v>19</v>
       </c>
-      <c r="X1" s="83">
+      <c r="Y1" s="59">
         <v>20</v>
       </c>
-      <c r="Y1" s="83">
+      <c r="Z1" s="59">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83" t="str">
+    <row r="2" spans="1:26">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59" t="str">
         <f>요금제!$C2</f>
         <v>5GX_슬림</v>
       </c>
-      <c r="E2" s="83" t="str">
+      <c r="F2" s="59" t="str">
         <f>요금제!$C3</f>
         <v>5GX_스탠다드</v>
       </c>
-      <c r="F2" s="83" t="str">
+      <c r="G2" s="59" t="str">
         <f>요금제!$C4</f>
         <v>5GX_프라임</v>
       </c>
-      <c r="G2" s="84" t="str">
+      <c r="H2" s="60" t="str">
         <f>요금제!$C5</f>
         <v>5GX_플래티넘</v>
       </c>
-      <c r="H2" s="84" t="str">
+      <c r="I2" s="60" t="str">
         <f>요금제!$C6</f>
         <v>5GX_청소년요금제_0틴</v>
       </c>
-      <c r="I2" s="84" t="str">
+      <c r="J2" s="60" t="str">
         <f>요금제!$C7</f>
         <v>LTE_플랜_세이브</v>
       </c>
-      <c r="J2" s="84" t="str">
+      <c r="K2" s="60" t="str">
         <f>요금제!$C8</f>
         <v>LTE_플랜_안심2.5G</v>
       </c>
-      <c r="K2" s="84" t="str">
+      <c r="L2" s="60" t="str">
         <f>요금제!$C9</f>
         <v>LTE_플랜_안심4G</v>
       </c>
-      <c r="L2" s="84" t="str">
+      <c r="M2" s="60" t="str">
         <f>요금제!$C10</f>
         <v>LTE_플랜_에센스</v>
       </c>
-      <c r="M2" s="84" t="str">
+      <c r="N2" s="60" t="str">
         <f>요금제!$C11</f>
         <v>LTE_플랜_스페셜</v>
       </c>
-      <c r="N2" s="84" t="str">
+      <c r="O2" s="60" t="str">
         <f>요금제!$C12</f>
         <v>LTE_플랜_맥스</v>
       </c>
-      <c r="O2" s="84" t="str">
+      <c r="P2" s="60" t="str">
         <f>요금제!$C13</f>
         <v>LTE_0플랜_스몰</v>
       </c>
-      <c r="P2" s="84" t="str">
+      <c r="Q2" s="60" t="str">
         <f>요금제!$C14</f>
         <v>LTE_0플랜_미디엄</v>
       </c>
-      <c r="Q2" s="84" t="str">
+      <c r="R2" s="60" t="str">
         <f>요금제!$C15</f>
         <v>LTE_0플랜_라지</v>
       </c>
-      <c r="R2" s="83" t="str">
+      <c r="S2" s="59" t="str">
         <f>요금제!$C16</f>
         <v>LTE_팅_세이브</v>
       </c>
-      <c r="S2" s="85" t="str">
+      <c r="T2" s="61" t="str">
         <f>요금제!$C17</f>
         <v>LTE_팅_3.0G</v>
       </c>
-      <c r="T2" s="85" t="str">
+      <c r="U2" s="61" t="str">
         <f>요금제!$C18</f>
         <v>LTE_팅_5.0G</v>
       </c>
-      <c r="U2" s="85" t="str">
+      <c r="V2" s="61" t="str">
         <f>요금제!$C19</f>
         <v>LTE어르신_세이브</v>
       </c>
-      <c r="V2" s="85" t="str">
+      <c r="W2" s="61" t="str">
         <f>요금제!$C20</f>
         <v>LTE어르신_안심2.8G</v>
       </c>
-      <c r="W2" s="85" t="str">
+      <c r="X2" s="61" t="str">
         <f>요금제!$C21</f>
         <v>LTE어르신_안심4.5G</v>
       </c>
-      <c r="X2" s="85" t="str">
+      <c r="Y2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
-      <c r="Y2" s="85" t="str">
+      <c r="Z2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="58" customFormat="1">
-      <c r="A3" s="87" t="s">
-        <v>48</v>
+    <row r="3" spans="1:26" s="58" customFormat="1">
+      <c r="A3" s="63" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="56">
         <v>1199000</v>
       </c>
       <c r="C3" s="56">
+        <v>400000</v>
+      </c>
+      <c r="D3" s="56">
         <v>345000</v>
       </c>
-      <c r="D3" s="57">
+      <c r="E3" s="57">
         <v>55000</v>
       </c>
-      <c r="E3" s="57">
+      <c r="F3" s="57">
         <v>75000</v>
       </c>
-      <c r="F3" s="57">
+      <c r="G3" s="57">
         <v>89000</v>
       </c>
-      <c r="G3" s="57">
+      <c r="H3" s="57">
         <v>125000</v>
       </c>
-      <c r="H3" s="57">
+      <c r="I3" s="57">
         <v>45000</v>
       </c>
-      <c r="I3" s="57"/>
       <c r="J3" s="57"/>
       <c r="K3" s="57"/>
       <c r="L3" s="57"/>
@@ -2048,56 +2059,63 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="86" t="s">
-        <v>49</v>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="62" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="56">
         <v>41241424</v>
       </c>
       <c r="C4" s="56">
+        <v>4213</v>
+      </c>
+      <c r="D4" s="56">
         <v>24</v>
       </c>
-      <c r="D4" s="57">
+      <c r="E4" s="57">
         <v>4242</v>
       </c>
-      <c r="E4" s="57">
+      <c r="F4" s="57">
         <v>424</v>
       </c>
-      <c r="F4" s="57">
+      <c r="G4" s="57">
         <v>24244</v>
       </c>
-      <c r="G4" s="57">
+      <c r="H4" s="57">
         <v>5</v>
       </c>
-      <c r="H4" s="57">
+      <c r="I4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="86" t="s">
-        <v>50</v>
+    <row r="5" spans="1:26">
+      <c r="A5" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="56">
         <v>412411</v>
       </c>
       <c r="C5" s="56">
+        <v>4242</v>
+      </c>
+      <c r="D5" s="56">
         <v>424</v>
       </c>
-      <c r="D5" s="57">
+      <c r="E5" s="57">
         <v>42442</v>
-      </c>
-      <c r="E5" s="57">
-        <v>424</v>
       </c>
       <c r="F5" s="57">
         <v>424</v>
       </c>
       <c r="G5" s="57">
+        <v>424</v>
+      </c>
+      <c r="H5" s="57">
         <v>42</v>
       </c>
-      <c r="H5" s="57">
+      <c r="I5" s="57">
         <v>613477374</v>
       </c>
     </row>
@@ -2131,70 +2149,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="62"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2230,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="81">
+      <c r="B6" s="85">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2255,7 +2273,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="67"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2295,7 +2313,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="67"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2353,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="82"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2375,9 +2393,9 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="68"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="45">
         <v>45000</v>
@@ -2419,58 +2437,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2478,12 +2496,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="61"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2501,7 +2519,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="67">
+      <c r="B17" s="69">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2545,7 +2563,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="67"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2604,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="67"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2645,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="67"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2668,9 +2686,9 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="68"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="45">
         <v>45000</v>
@@ -2748,8 +2766,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="G15:G16"/>
@@ -2768,6 +2784,8 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE91938-9551-DE40-964A-4D030D4F1489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934B1B0-9B51-3D4F-BFB9-514585CC7701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>요금제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -260,15 +260,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>특별할인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>요금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1087,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1453,10 +1467,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="52"/>
@@ -1817,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1829,200 +1843,212 @@
     <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="56" customWidth="1"/>
     <col min="4" max="4" width="13" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13" style="56" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:30">
+      <c r="A1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="59">
+        <v>0</v>
+      </c>
+      <c r="J1" s="59">
+        <v>1</v>
+      </c>
+      <c r="K1" s="59">
         <v>2</v>
       </c>
-      <c r="E1" s="59">
-        <v>0</v>
-      </c>
-      <c r="F1" s="59">
-        <v>1</v>
-      </c>
-      <c r="G1" s="59">
-        <v>2</v>
-      </c>
-      <c r="H1" s="59">
+      <c r="L1" s="59">
         <v>3</v>
       </c>
-      <c r="I1" s="59">
+      <c r="M1" s="59">
         <v>4</v>
       </c>
-      <c r="J1" s="59">
+      <c r="N1" s="59">
         <v>5</v>
       </c>
-      <c r="K1" s="59">
+      <c r="O1" s="59">
         <v>6</v>
       </c>
-      <c r="L1" s="59">
+      <c r="P1" s="59">
         <v>7</v>
       </c>
-      <c r="M1" s="59">
+      <c r="Q1" s="59">
         <v>8</v>
       </c>
-      <c r="N1" s="59">
+      <c r="R1" s="59">
         <v>9</v>
       </c>
-      <c r="O1" s="59">
+      <c r="S1" s="59">
         <v>10</v>
       </c>
-      <c r="P1" s="59">
+      <c r="T1" s="59">
         <v>11</v>
       </c>
-      <c r="Q1" s="59">
+      <c r="U1" s="59">
         <v>12</v>
       </c>
-      <c r="R1" s="59">
+      <c r="V1" s="59">
         <v>13</v>
       </c>
-      <c r="S1" s="59">
+      <c r="W1" s="59">
         <v>14</v>
       </c>
-      <c r="T1" s="59">
+      <c r="X1" s="59">
         <v>15</v>
       </c>
-      <c r="U1" s="59">
+      <c r="Y1" s="59">
         <v>16</v>
       </c>
-      <c r="V1" s="59">
+      <c r="Z1" s="59">
         <v>17</v>
       </c>
-      <c r="W1" s="59">
+      <c r="AA1" s="59">
         <v>18</v>
       </c>
-      <c r="X1" s="59">
+      <c r="AB1" s="59">
         <v>19</v>
       </c>
-      <c r="Y1" s="59">
+      <c r="AC1" s="59">
         <v>20</v>
       </c>
-      <c r="Z1" s="59">
+      <c r="AD1" s="59">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="B2" s="59"/>
+    <row r="2" spans="1:30">
+      <c r="A2" s="90"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
-      <c r="E2" s="59" t="str">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="str">
         <f>요금제!$C2</f>
         <v>5GX_슬림</v>
       </c>
-      <c r="F2" s="59" t="str">
+      <c r="J2" s="59" t="str">
         <f>요금제!$C3</f>
         <v>5GX_스탠다드</v>
       </c>
-      <c r="G2" s="59" t="str">
+      <c r="K2" s="59" t="str">
         <f>요금제!$C4</f>
         <v>5GX_프라임</v>
       </c>
-      <c r="H2" s="60" t="str">
+      <c r="L2" s="60" t="str">
         <f>요금제!$C5</f>
         <v>5GX_플래티넘</v>
       </c>
-      <c r="I2" s="60" t="str">
+      <c r="M2" s="60" t="str">
         <f>요금제!$C6</f>
         <v>5GX_청소년요금제_0틴</v>
       </c>
-      <c r="J2" s="60" t="str">
+      <c r="N2" s="60" t="str">
         <f>요금제!$C7</f>
         <v>LTE_플랜_세이브</v>
       </c>
-      <c r="K2" s="60" t="str">
+      <c r="O2" s="60" t="str">
         <f>요금제!$C8</f>
         <v>LTE_플랜_안심2.5G</v>
       </c>
-      <c r="L2" s="60" t="str">
+      <c r="P2" s="60" t="str">
         <f>요금제!$C9</f>
         <v>LTE_플랜_안심4G</v>
       </c>
-      <c r="M2" s="60" t="str">
+      <c r="Q2" s="60" t="str">
         <f>요금제!$C10</f>
         <v>LTE_플랜_에센스</v>
       </c>
-      <c r="N2" s="60" t="str">
+      <c r="R2" s="60" t="str">
         <f>요금제!$C11</f>
         <v>LTE_플랜_스페셜</v>
       </c>
-      <c r="O2" s="60" t="str">
+      <c r="S2" s="60" t="str">
         <f>요금제!$C12</f>
         <v>LTE_플랜_맥스</v>
       </c>
-      <c r="P2" s="60" t="str">
+      <c r="T2" s="60" t="str">
         <f>요금제!$C13</f>
         <v>LTE_0플랜_스몰</v>
       </c>
-      <c r="Q2" s="60" t="str">
+      <c r="U2" s="60" t="str">
         <f>요금제!$C14</f>
         <v>LTE_0플랜_미디엄</v>
       </c>
-      <c r="R2" s="60" t="str">
+      <c r="V2" s="60" t="str">
         <f>요금제!$C15</f>
         <v>LTE_0플랜_라지</v>
       </c>
-      <c r="S2" s="59" t="str">
+      <c r="W2" s="59" t="str">
         <f>요금제!$C16</f>
         <v>LTE_팅_세이브</v>
       </c>
-      <c r="T2" s="61" t="str">
+      <c r="X2" s="61" t="str">
         <f>요금제!$C17</f>
         <v>LTE_팅_3.0G</v>
       </c>
-      <c r="U2" s="61" t="str">
+      <c r="Y2" s="61" t="str">
         <f>요금제!$C18</f>
         <v>LTE_팅_5.0G</v>
       </c>
-      <c r="V2" s="61" t="str">
+      <c r="Z2" s="61" t="str">
         <f>요금제!$C19</f>
         <v>LTE어르신_세이브</v>
       </c>
-      <c r="W2" s="61" t="str">
+      <c r="AA2" s="61" t="str">
         <f>요금제!$C20</f>
         <v>LTE어르신_안심2.8G</v>
       </c>
-      <c r="X2" s="61" t="str">
+      <c r="AB2" s="61" t="str">
         <f>요금제!$C21</f>
         <v>LTE어르신_안심4.5G</v>
       </c>
-      <c r="Y2" s="61" t="str">
+      <c r="AC2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
-      <c r="Z2" s="61" t="str">
+      <c r="AD2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="58" customFormat="1">
+    <row r="3" spans="1:30" s="58" customFormat="1">
       <c r="A3" s="63" t="s">
         <v>46</v>
       </c>
@@ -2035,33 +2061,37 @@
       <c r="D3" s="56">
         <v>345000</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57">
         <v>55000</v>
       </c>
-      <c r="F3" s="57">
+      <c r="J3" s="57">
         <v>75000</v>
       </c>
-      <c r="G3" s="57">
+      <c r="K3" s="57">
         <v>89000</v>
       </c>
-      <c r="H3" s="57">
+      <c r="L3" s="57">
         <v>125000</v>
       </c>
-      <c r="I3" s="57">
+      <c r="M3" s="57">
         <v>45000</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
@@ -2074,23 +2104,23 @@
       <c r="D4" s="56">
         <v>24</v>
       </c>
-      <c r="E4" s="57">
+      <c r="I4" s="57">
         <v>4242</v>
       </c>
-      <c r="F4" s="57">
+      <c r="J4" s="57">
         <v>424</v>
       </c>
-      <c r="G4" s="57">
+      <c r="K4" s="57">
         <v>24244</v>
       </c>
-      <c r="H4" s="57">
+      <c r="L4" s="57">
         <v>5</v>
       </c>
-      <c r="I4" s="57">
+      <c r="M4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" s="62" t="s">
         <v>48</v>
       </c>
@@ -2103,23 +2133,30 @@
       <c r="D5" s="56">
         <v>424</v>
       </c>
-      <c r="E5" s="57">
+      <c r="I5" s="57">
         <v>42442</v>
       </c>
-      <c r="F5" s="57">
+      <c r="J5" s="57">
         <v>424</v>
       </c>
-      <c r="G5" s="57">
+      <c r="K5" s="57">
         <v>424</v>
       </c>
-      <c r="H5" s="57">
+      <c r="L5" s="57">
         <v>42</v>
       </c>
-      <c r="I5" s="57">
+      <c r="M5" s="57">
         <v>613477374</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934B1B0-9B51-3D4F-BFB9-514585CC7701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E064B7D-D98F-874F-B6CB-27DB33AF273A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -268,15 +268,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lg</t>
+    <t>추가-sk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가-kt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가-lg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,11 +1089,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1831,224 +1834,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="13" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13" style="56" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="56" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="89"/>
+      <c r="D1" s="89" t="s">
+        <v>53</v>
+      </c>
       <c r="E1" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="F1" s="59">
+        <v>0</v>
+      </c>
+      <c r="G1" s="59">
+        <v>1</v>
+      </c>
+      <c r="H1" s="59">
+        <v>2</v>
+      </c>
       <c r="I1" s="59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1" s="59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K1" s="59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L1" s="59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M1" s="59">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N1" s="59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O1" s="59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P1" s="59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R1" s="59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S1" s="59">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T1" s="59">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U1" s="59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V1" s="59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W1" s="59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X1" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="59">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA1" s="59">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="59">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="59">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="59">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="90"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59" t="str">
+    <row r="2" spans="1:27">
+      <c r="A2" s="91"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="59" t="str">
         <f>요금제!$C2</f>
         <v>5GX_슬림</v>
       </c>
-      <c r="J2" s="59" t="str">
+      <c r="G2" s="59" t="str">
         <f>요금제!$C3</f>
         <v>5GX_스탠다드</v>
       </c>
-      <c r="K2" s="59" t="str">
+      <c r="H2" s="59" t="str">
         <f>요금제!$C4</f>
         <v>5GX_프라임</v>
       </c>
-      <c r="L2" s="60" t="str">
+      <c r="I2" s="60" t="str">
         <f>요금제!$C5</f>
         <v>5GX_플래티넘</v>
       </c>
-      <c r="M2" s="60" t="str">
+      <c r="J2" s="60" t="str">
         <f>요금제!$C6</f>
         <v>5GX_청소년요금제_0틴</v>
       </c>
-      <c r="N2" s="60" t="str">
+      <c r="K2" s="60" t="str">
         <f>요금제!$C7</f>
         <v>LTE_플랜_세이브</v>
       </c>
-      <c r="O2" s="60" t="str">
+      <c r="L2" s="60" t="str">
         <f>요금제!$C8</f>
         <v>LTE_플랜_안심2.5G</v>
       </c>
-      <c r="P2" s="60" t="str">
+      <c r="M2" s="60" t="str">
         <f>요금제!$C9</f>
         <v>LTE_플랜_안심4G</v>
       </c>
-      <c r="Q2" s="60" t="str">
+      <c r="N2" s="60" t="str">
         <f>요금제!$C10</f>
         <v>LTE_플랜_에센스</v>
       </c>
-      <c r="R2" s="60" t="str">
+      <c r="O2" s="60" t="str">
         <f>요금제!$C11</f>
         <v>LTE_플랜_스페셜</v>
       </c>
-      <c r="S2" s="60" t="str">
+      <c r="P2" s="60" t="str">
         <f>요금제!$C12</f>
         <v>LTE_플랜_맥스</v>
       </c>
-      <c r="T2" s="60" t="str">
+      <c r="Q2" s="60" t="str">
         <f>요금제!$C13</f>
         <v>LTE_0플랜_스몰</v>
       </c>
-      <c r="U2" s="60" t="str">
+      <c r="R2" s="60" t="str">
         <f>요금제!$C14</f>
         <v>LTE_0플랜_미디엄</v>
       </c>
-      <c r="V2" s="60" t="str">
+      <c r="S2" s="60" t="str">
         <f>요금제!$C15</f>
         <v>LTE_0플랜_라지</v>
       </c>
-      <c r="W2" s="59" t="str">
+      <c r="T2" s="59" t="str">
         <f>요금제!$C16</f>
         <v>LTE_팅_세이브</v>
       </c>
-      <c r="X2" s="61" t="str">
+      <c r="U2" s="61" t="str">
         <f>요금제!$C17</f>
         <v>LTE_팅_3.0G</v>
       </c>
-      <c r="Y2" s="61" t="str">
+      <c r="V2" s="61" t="str">
         <f>요금제!$C18</f>
         <v>LTE_팅_5.0G</v>
       </c>
-      <c r="Z2" s="61" t="str">
+      <c r="W2" s="61" t="str">
         <f>요금제!$C19</f>
         <v>LTE어르신_세이브</v>
       </c>
-      <c r="AA2" s="61" t="str">
+      <c r="X2" s="61" t="str">
         <f>요금제!$C20</f>
         <v>LTE어르신_안심2.8G</v>
       </c>
-      <c r="AB2" s="61" t="str">
+      <c r="Y2" s="61" t="str">
         <f>요금제!$C21</f>
         <v>LTE어르신_안심4.5G</v>
       </c>
-      <c r="AC2" s="61" t="str">
+      <c r="Z2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
-      <c r="AD2" s="61" t="str">
+      <c r="AA2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="58" customFormat="1">
+    <row r="3" spans="1:27" s="58" customFormat="1">
       <c r="A3" s="63" t="s">
         <v>46</v>
       </c>
@@ -2056,30 +2052,32 @@
         <v>1199000</v>
       </c>
       <c r="C3" s="56">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="56">
+        <v>0</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0</v>
+      </c>
+      <c r="F3" s="57">
         <v>345000</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="57">
+        <v>444000</v>
+      </c>
+      <c r="H3" s="57">
+        <v>480000</v>
+      </c>
       <c r="I3" s="57">
-        <v>55000</v>
+        <v>480000</v>
       </c>
       <c r="J3" s="57">
-        <v>75000</v>
-      </c>
-      <c r="K3" s="57">
-        <v>89000</v>
-      </c>
-      <c r="L3" s="57">
-        <v>125000</v>
-      </c>
-      <c r="M3" s="57">
-        <v>45000</v>
-      </c>
+        <v>404000</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
@@ -2087,76 +2085,72 @@
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="56">
-        <v>41241424</v>
+        <v>1000000</v>
       </c>
       <c r="C4" s="56">
-        <v>4213</v>
+        <v>0</v>
       </c>
       <c r="D4" s="56">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <v>4242</v>
+      </c>
+      <c r="G4" s="57">
+        <v>424</v>
+      </c>
+      <c r="H4" s="57">
+        <v>24244</v>
       </c>
       <c r="I4" s="57">
-        <v>4242</v>
+        <v>5</v>
       </c>
       <c r="J4" s="57">
-        <v>424</v>
-      </c>
-      <c r="K4" s="57">
-        <v>24244</v>
-      </c>
-      <c r="L4" s="57">
-        <v>5</v>
-      </c>
-      <c r="M4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:27">
       <c r="A5" s="62" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="56">
-        <v>412411</v>
+        <v>1300000</v>
       </c>
       <c r="C5" s="56">
-        <v>4242</v>
+        <v>0</v>
       </c>
       <c r="D5" s="56">
+        <v>0</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <v>42442</v>
+      </c>
+      <c r="G5" s="57">
         <v>424</v>
       </c>
+      <c r="H5" s="57">
+        <v>424</v>
+      </c>
       <c r="I5" s="57">
-        <v>42442</v>
+        <v>42</v>
       </c>
       <c r="J5" s="57">
-        <v>424</v>
-      </c>
-      <c r="K5" s="57">
-        <v>424</v>
-      </c>
-      <c r="L5" s="57">
-        <v>42</v>
-      </c>
-      <c r="M5" s="57">
         <v>613477374</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E064B7D-D98F-874F-B6CB-27DB33AF273A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3981AC-9492-2041-B34D-4BA775823594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>요금제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>추가-lg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가-알뜰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,6 +1021,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,9 +1078,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,9 +1085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,21 +1104,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1834,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1845,206 +1852,210 @@
     <col min="1" max="1" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="56" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13" style="56" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="59">
         <v>0</v>
       </c>
-      <c r="G1" s="59">
+      <c r="H1" s="59">
         <v>1</v>
       </c>
-      <c r="H1" s="59">
+      <c r="I1" s="59">
         <v>2</v>
       </c>
-      <c r="I1" s="59">
+      <c r="J1" s="59">
         <v>3</v>
       </c>
-      <c r="J1" s="59">
+      <c r="K1" s="59">
         <v>4</v>
       </c>
-      <c r="K1" s="59">
+      <c r="L1" s="59">
         <v>5</v>
       </c>
-      <c r="L1" s="59">
+      <c r="M1" s="59">
         <v>6</v>
       </c>
-      <c r="M1" s="59">
+      <c r="N1" s="59">
         <v>7</v>
       </c>
-      <c r="N1" s="59">
+      <c r="O1" s="59">
         <v>8</v>
       </c>
-      <c r="O1" s="59">
+      <c r="P1" s="59">
         <v>9</v>
       </c>
-      <c r="P1" s="59">
+      <c r="Q1" s="59">
         <v>10</v>
       </c>
-      <c r="Q1" s="59">
+      <c r="R1" s="59">
         <v>11</v>
       </c>
-      <c r="R1" s="59">
+      <c r="S1" s="59">
         <v>12</v>
       </c>
-      <c r="S1" s="59">
+      <c r="T1" s="59">
         <v>13</v>
       </c>
-      <c r="T1" s="59">
+      <c r="U1" s="59">
         <v>14</v>
       </c>
-      <c r="U1" s="59">
+      <c r="V1" s="59">
         <v>15</v>
       </c>
-      <c r="V1" s="59">
+      <c r="W1" s="59">
         <v>16</v>
       </c>
-      <c r="W1" s="59">
+      <c r="X1" s="59">
         <v>17</v>
       </c>
-      <c r="X1" s="59">
+      <c r="Y1" s="59">
         <v>18</v>
       </c>
-      <c r="Y1" s="59">
+      <c r="Z1" s="59">
         <v>19</v>
       </c>
-      <c r="Z1" s="59">
+      <c r="AA1" s="59">
         <v>20</v>
       </c>
-      <c r="AA1" s="59">
+      <c r="AB1" s="59">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="91"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="59" t="str">
+    <row r="2" spans="1:28">
+      <c r="A2" s="67"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="59" t="str">
         <f>요금제!$C2</f>
         <v>5GX_슬림</v>
       </c>
-      <c r="G2" s="59" t="str">
+      <c r="H2" s="59" t="str">
         <f>요금제!$C3</f>
         <v>5GX_스탠다드</v>
       </c>
-      <c r="H2" s="59" t="str">
+      <c r="I2" s="59" t="str">
         <f>요금제!$C4</f>
         <v>5GX_프라임</v>
       </c>
-      <c r="I2" s="60" t="str">
+      <c r="J2" s="60" t="str">
         <f>요금제!$C5</f>
         <v>5GX_플래티넘</v>
       </c>
-      <c r="J2" s="60" t="str">
+      <c r="K2" s="60" t="str">
         <f>요금제!$C6</f>
         <v>5GX_청소년요금제_0틴</v>
       </c>
-      <c r="K2" s="60" t="str">
+      <c r="L2" s="60" t="str">
         <f>요금제!$C7</f>
         <v>LTE_플랜_세이브</v>
       </c>
-      <c r="L2" s="60" t="str">
+      <c r="M2" s="60" t="str">
         <f>요금제!$C8</f>
         <v>LTE_플랜_안심2.5G</v>
       </c>
-      <c r="M2" s="60" t="str">
+      <c r="N2" s="60" t="str">
         <f>요금제!$C9</f>
         <v>LTE_플랜_안심4G</v>
       </c>
-      <c r="N2" s="60" t="str">
+      <c r="O2" s="60" t="str">
         <f>요금제!$C10</f>
         <v>LTE_플랜_에센스</v>
       </c>
-      <c r="O2" s="60" t="str">
+      <c r="P2" s="60" t="str">
         <f>요금제!$C11</f>
         <v>LTE_플랜_스페셜</v>
       </c>
-      <c r="P2" s="60" t="str">
+      <c r="Q2" s="60" t="str">
         <f>요금제!$C12</f>
         <v>LTE_플랜_맥스</v>
       </c>
-      <c r="Q2" s="60" t="str">
+      <c r="R2" s="60" t="str">
         <f>요금제!$C13</f>
         <v>LTE_0플랜_스몰</v>
       </c>
-      <c r="R2" s="60" t="str">
+      <c r="S2" s="60" t="str">
         <f>요금제!$C14</f>
         <v>LTE_0플랜_미디엄</v>
       </c>
-      <c r="S2" s="60" t="str">
+      <c r="T2" s="60" t="str">
         <f>요금제!$C15</f>
         <v>LTE_0플랜_라지</v>
       </c>
-      <c r="T2" s="59" t="str">
+      <c r="U2" s="59" t="str">
         <f>요금제!$C16</f>
         <v>LTE_팅_세이브</v>
       </c>
-      <c r="U2" s="61" t="str">
+      <c r="V2" s="61" t="str">
         <f>요금제!$C17</f>
         <v>LTE_팅_3.0G</v>
       </c>
-      <c r="V2" s="61" t="str">
+      <c r="W2" s="61" t="str">
         <f>요금제!$C18</f>
         <v>LTE_팅_5.0G</v>
       </c>
-      <c r="W2" s="61" t="str">
+      <c r="X2" s="61" t="str">
         <f>요금제!$C19</f>
         <v>LTE어르신_세이브</v>
       </c>
-      <c r="X2" s="61" t="str">
+      <c r="Y2" s="61" t="str">
         <f>요금제!$C20</f>
         <v>LTE어르신_안심2.8G</v>
       </c>
-      <c r="Y2" s="61" t="str">
+      <c r="Z2" s="61" t="str">
         <f>요금제!$C21</f>
         <v>LTE어르신_안심4.5G</v>
-      </c>
-      <c r="Z2" s="61" t="str">
-        <f>요금제!$C22</f>
-        <v>LTE어르신_에센스</v>
       </c>
       <c r="AA2" s="61" t="str">
         <f>요금제!$C22</f>
         <v>LTE어르신_에센스</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="58" customFormat="1">
+      <c r="AB2" s="61" t="str">
+        <f>요금제!$C22</f>
+        <v>LTE어르신_에센스</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="58" customFormat="1">
       <c r="A3" s="63" t="s">
         <v>46</v>
       </c>
@@ -2052,30 +2063,32 @@
         <v>1199000</v>
       </c>
       <c r="C3" s="56">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="56">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E3" s="56">
-        <v>0</v>
-      </c>
-      <c r="F3" s="57">
+        <v>300000</v>
+      </c>
+      <c r="F3" s="56">
+        <v>400000</v>
+      </c>
+      <c r="G3" s="57">
         <v>345000</v>
       </c>
-      <c r="G3" s="57">
+      <c r="H3" s="57">
         <v>444000</v>
-      </c>
-      <c r="H3" s="57">
-        <v>480000</v>
       </c>
       <c r="I3" s="57">
         <v>480000</v>
       </c>
       <c r="J3" s="57">
+        <v>480000</v>
+      </c>
+      <c r="K3" s="57">
         <v>404000</v>
       </c>
-      <c r="K3" s="57"/>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
@@ -2085,8 +2098,9 @@
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="U3" s="57"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
@@ -2102,23 +2116,26 @@
       <c r="E4" s="56">
         <v>0</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
+        <v>0</v>
+      </c>
+      <c r="G4" s="57">
         <v>4242</v>
       </c>
-      <c r="G4" s="57">
+      <c r="H4" s="57">
         <v>424</v>
       </c>
-      <c r="H4" s="57">
+      <c r="I4" s="57">
         <v>24244</v>
       </c>
-      <c r="I4" s="57">
+      <c r="J4" s="57">
         <v>5</v>
       </c>
-      <c r="J4" s="57">
+      <c r="K4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="62" t="s">
         <v>48</v>
       </c>
@@ -2134,23 +2151,29 @@
       <c r="E5" s="56">
         <v>0</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="56">
+        <v>0</v>
+      </c>
+      <c r="G5" s="57">
         <v>42442</v>
-      </c>
-      <c r="G5" s="57">
-        <v>424</v>
       </c>
       <c r="H5" s="57">
         <v>424</v>
       </c>
       <c r="I5" s="57">
+        <v>424</v>
+      </c>
+      <c r="J5" s="57">
         <v>42</v>
       </c>
-      <c r="J5" s="57">
+      <c r="K5" s="57">
         <v>613477374</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2160,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2180,70 +2203,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="87"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2261,7 +2284,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="85">
+      <c r="B6" s="91">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2304,7 +2327,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="69"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2367,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="69"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2384,7 +2407,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="86"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2447,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="70"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2468,58 +2491,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2527,12 +2550,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="80"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2573,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="69">
+      <c r="B17" s="77">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2594,7 +2617,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="69"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2658,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="69"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2699,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="69"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2740,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="70"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2797,6 +2820,8 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="G15:G16"/>
@@ -2815,8 +2840,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3981AC-9492-2041-B34D-4BA775823594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D00729-F56C-F44E-9B60-EE52009E0267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요금제" sheetId="11" r:id="rId1"/>
@@ -1033,30 +1033,6 @@
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,6 +1054,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,11 +1067,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,6 +1095,15 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2063,16 +2063,16 @@
         <v>1199000</v>
       </c>
       <c r="C3" s="56">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="56">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="56">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="56">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="57">
         <v>345000</v>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2203,70 +2203,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="91">
+      <c r="B6" s="88">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="77"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="77"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2407,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="92"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="78"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2491,58 +2491,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2550,12 +2550,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="71"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="77">
+      <c r="B17" s="69">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="77"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="77"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="77"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="78"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2820,6 +2820,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
@@ -2836,10 +2840,6 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
